--- a/biology/Histoire de la zoologie et de la botanique/Braun-Blanq/Braun-Blanq..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Braun-Blanq/Braun-Blanq..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josias Braun (né le 3 août 1884 à Coire et mort le 20 septembre 1980 à Montpellier) connu sous le nom de Josias Braun-Blanquet, est un botaniste suisse, fondateur de la Station internationale de géobotanique méditerranéenne et alpine (SIGMA) de Montpellier, père de la phytosociologie sigmatiste.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josias Braun est né le 3 août 1884 à Coire dans le canton des Grisons ; sous la pression familiale, il commence une carrière d'employé de banque, tout en consacrant ses loisirs à l'étude de la flore des Alpes. La qualité de ses travaux lui permet d'obtenir grâce à Eduard August Rübel, un poste de privat-docent à l'École polytechnique fédérale de Zurich, mais faute de titre universitaire, il ne peut faire carrière en Suisse dans l'enseignement ou la recherche en botanique. Il quitte alors son pays natal pour s'établir en France, dans l'Hérault, à Montpellier, où il rencontre Gabrielle Blanquet, qui deviendra son épouse et dont il ajoutera le nom au sien, en signant dorénavant ses travaux « Josias Braun-Blanquet ».
 Sous l'égide des professeurs Flahault et Pavillard, il entreprend une thèse de doctorat sur la végétation des Cévennes méridionales, qu'il présente en 1915. En 1930, il fonde la Station internationale de géobotanique méditerranéenne et alpine de Montpellier et en devient le directeur. En 1948, il commence à éditer la revue Vegetatio, qui deviendra rapidement la tribune internationale de la géobotanique.
 Ses travaux sont reconnus avec la médaille d'or de la Société linnéenne de Londres en 1974.
-Son épouse, Gabrielle a régulièrement participé à ses travaux ; elle a également signé ou cosigné quelques contributions botaniques. Après son décès en 1966, leur fille, le docteur Mireille Braun-Blanquet, prendra le relais auprès de son père devenu sourd et très diminué par la vieillesse. Josias Braun-Blanquet est mort le 20 septembre 1980 à Montpellier. La propriété familiale à Montpellier, la villa Sainte-Christine[3], sera léguée par Mireille à l'Institut du Christ Roi Souverain Prêtre.
+Son épouse, Gabrielle a régulièrement participé à ses travaux ; elle a également signé ou cosigné quelques contributions botaniques. Après son décès en 1966, leur fille, le docteur Mireille Braun-Blanquet, prendra le relais auprès de son père devenu sourd et très diminué par la vieillesse. Josias Braun-Blanquet est mort le 20 septembre 1980 à Montpellier. La propriété familiale à Montpellier, la villa Sainte-Christine, sera léguée par Mireille à l'Institut du Christ Roi Souverain Prêtre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Se consacrant particulièrement à la phytosociologie - elle-même en tête de la phytoécologie européenne -, il publie à 44 ans (1928) son Pflanzensoziologie qui le pose comme joueur principal et fait de l'école franco-allemande Montpellier-Zurich le principal meneur dans ce domaine. Son influence amène une focalisation sur les patterns plutôt que les processus, sur les types d'espèces plutôt que les types de formes (voir August Grisebach), et par extension sur une classification des unités basées sur la composition de la couverture végétale et seulement cela.
 Il fait notamment paraître :
@@ -565,10 +581,7 @@
 La végétation de l'étage alpin des Pyrénées orientales comparée à celle des Alpes (El noticiero, Saragosse, 1950).
 Les groupements végétaux de la France méditerranéenne (imprimerie de Macabet frères, Vaison-la-Romaine, 1952).
 Pflanzensoziologie : Grundzüge der Vegetationskunde (Springer, Vienne, 1964).
-Las comunidades vegetales de la depresión del Ebro y su dinamismo, con Oriol de Bolòs (Ayuntamiento de Zaragoza, 1987).
-Autres publications
-Essai sur les notions d'« élément » et de « territoire » phytogéographiques. Zeitschrift: Archives des sciences physiques et naturelles, Band (Jahr):1 (1919) (lien).
-avec A Thellung : Observations sur la végétation et sur la flore des environs de Zermatt. Bulletin de la Murithienne, 1919 (lien).</t>
+Las comunidades vegetales de la depresión del Ebro y su dinamismo, con Oriol de Bolòs (Ayuntamiento de Zaragoza, 1987).</t>
         </is>
       </c>
     </row>
@@ -593,12 +606,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essai sur les notions d'« élément » et de « territoire » phytogéographiques. Zeitschrift: Archives des sciences physiques et naturelles, Band (Jahr):1 (1919) (lien).
+avec A Thellung : Observations sur la végétation et sur la flore des environs de Zermatt. Bulletin de la Murithienne, 1919 (lien).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Braun-Blanq.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Braun-Blanq.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix Braun-Blanquet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mireille Braun, à la fin de sa vie, a légué la villa Sainte-Christine, à Montpellier, à l'Institut du Christ Roi Souverain Prêtre, une des conditions étant la création d'un prix destiné à récompenser la recherche botanique. L'Institut a donc créé la Fondation Josias Braun-Blanquet à Genève, 27 août 1998, avec nouveaux statuts le 5 juin 2009[4]. Cette fondation est dirigée par un Conseil de Fondation dont les membres font obligatoirement partie de l'Association des Amis de l'Institut du Christ Roi Souverain Prêtre.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mireille Braun, à la fin de sa vie, a légué la villa Sainte-Christine, à Montpellier, à l'Institut du Christ Roi Souverain Prêtre, une des conditions étant la création d'un prix destiné à récompenser la recherche botanique. L'Institut a donc créé la Fondation Josias Braun-Blanquet à Genève, 27 août 1998, avec nouveaux statuts le 5 juin 2009. Cette fondation est dirigée par un Conseil de Fondation dont les membres font obligatoirement partie de l'Association des Amis de l'Institut du Christ Roi Souverain Prêtre.
 Au sein de la Fondation, est constitué un « Comité d'attribution » du prix. Ce Comité doit être composé exclusivement de membres de l'Association des amis de l'Institut du Christ Roi. Or, on ne voit pas que l'appartenance à l'Institut du Christ Roi Souverain prêtre confère quelque compétence que ce soit pour juger des mérites de tel ou tel chercheur en botanique.
 C'est probablement cela qui explique que ce prix triennal n'ait jamais été attribué ou décerné une seule fois depuis cette date, malgré la somme importante apportée en dotation par la fondatrice.
 D'autre part, la famille Blanquet a intenté un procès contre l'Institut, pour contester le legs.
